--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="infolink" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="energytrend" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pvinsights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="infolink" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="energytrend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="pvinsights" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,26 +472,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.115</v>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,7 +519,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
@@ -572,7 +580,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -592,14 +600,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -619,46 +627,38 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -781,14 +781,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -808,14 +808,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -835,14 +835,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -862,14 +862,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -889,14 +889,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -916,19 +916,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -942,6 +942,33 @@
         </is>
       </c>
       <c r="E19" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -958,7 +985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,22 +1030,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1030,7 +1057,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1040,7 +1067,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1057,7 +1084,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1084,7 +1111,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1099,7 +1126,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1111,12 +1138,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1126,7 +1153,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1138,12 +1165,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1153,7 +1180,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1165,7 +1192,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1192,12 +1219,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1207,7 +1234,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1219,12 +1246,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1234,7 +1261,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1246,7 +1273,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1273,7 +1300,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1300,12 +1327,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1315,7 +1342,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1327,22 +1354,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1354,12 +1381,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1369,7 +1396,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1381,12 +1408,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1396,7 +1423,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1408,12 +1435,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1423,7 +1450,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1435,12 +1462,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1450,7 +1477,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1481,6 +1508,33 @@
         </is>
       </c>
       <c r="E19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -1497,7 +1551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1542,7 +1596,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1551,13 +1605,19 @@
       <c r="C2" t="n">
         <v>0.09</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1566,13 +1626,19 @@
       <c r="C3" t="n">
         <v>0.09</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1581,13 +1647,19 @@
       <c r="C4" t="n">
         <v>0.09</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1596,13 +1668,19 @@
       <c r="C5" t="n">
         <v>0.09</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1611,13 +1689,19 @@
       <c r="C6" t="n">
         <v>0.09</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1631,14 +1715,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1652,14 +1736,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1680,7 +1764,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1689,19 +1773,13 @@
       <c r="C10" t="n">
         <v>0.09</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1710,19 +1788,13 @@
       <c r="C11" t="n">
         <v>0.09</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1731,19 +1803,13 @@
       <c r="C12" t="n">
         <v>0.09</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1757,14 +1823,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1778,14 +1844,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1799,14 +1865,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1820,14 +1886,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1836,19 +1902,13 @@
       <c r="C17" t="n">
         <v>0.09</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1857,10 +1917,25 @@
       <c r="C18" t="n">
         <v>0.09</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.17</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>7.265</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,6 +974,33 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.050</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -985,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,7 +1354,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1354,22 +1381,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1381,7 +1408,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1391,12 +1418,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1408,7 +1435,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1423,7 +1450,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1435,7 +1462,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1450,7 +1477,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1462,7 +1489,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1477,7 +1504,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1489,12 +1516,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1504,7 +1531,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1516,25 +1543,52 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -1551,7 +1605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1743,28 +1797,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0.31</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D9" t="n">
         <v>0.17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1773,13 +1827,19 @@
       <c r="C10" t="n">
         <v>0.09</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1794,7 +1854,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1809,7 +1869,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1818,19 +1878,13 @@
       <c r="C13" t="n">
         <v>0.09</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1851,7 +1905,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1865,14 +1919,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1886,14 +1940,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1902,13 +1956,19 @@
       <c r="C17" t="n">
         <v>0.09</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1923,7 +1983,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1932,10 +1992,25 @@
       <c r="C19" t="n">
         <v>0.09</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.17</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>7.265</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,12 +923,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -950,7 +950,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -977,25 +977,52 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>2024-12-19</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1012,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1543,7 +1570,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1570,25 +1597,52 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -1605,7 +1659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1776,70 +1830,70 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.31</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0.31</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D9" t="n">
         <v>0.17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D10" t="n">
         <v>0.17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1848,13 +1902,19 @@
       <c r="C11" t="n">
         <v>0.09</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1869,7 +1929,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1884,7 +1944,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1893,19 +1953,13 @@
       <c r="C14" t="n">
         <v>0.09</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1926,7 +1980,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1940,14 +1994,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1961,14 +2015,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1977,13 +2031,19 @@
       <c r="C18" t="n">
         <v>0.09</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1998,7 +2058,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2007,10 +2067,25 @@
       <c r="C20" t="n">
         <v>0.09</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.17</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>7.265</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,12 +472,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,19 +492,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,14 +519,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -546,14 +546,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -580,12 +580,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,14 +600,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,65 +627,65 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.115</v>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1.050</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -700,14 +700,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -727,14 +727,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -754,19 +754,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -781,19 +781,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -808,14 +808,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -835,14 +835,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -862,14 +862,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -889,14 +889,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -916,19 +916,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -943,19 +943,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -977,7 +977,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1004,25 +1004,52 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>2024-12-19</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1039,7 +1066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1381,7 +1408,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1396,7 +1423,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1408,7 +1435,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1435,22 +1462,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1462,7 +1489,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1472,12 +1499,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1489,7 +1516,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1504,7 +1531,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1516,7 +1543,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1531,7 +1558,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1543,7 +1570,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1558,7 +1585,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1570,12 +1597,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1585,7 +1612,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1597,7 +1624,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1624,25 +1651,52 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -1659,7 +1713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1746,28 +1800,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0.31</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D4" t="n">
         <v>0.17</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1781,14 +1835,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1809,7 +1863,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1823,98 +1877,98 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.31</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0.31</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D9" t="n">
         <v>0.17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D10" t="n">
         <v>0.17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0.31</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D11" t="n">
         <v>0.17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1923,13 +1977,19 @@
       <c r="C12" t="n">
         <v>0.09</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1944,7 +2004,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1959,7 +2019,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1968,19 +2028,13 @@
       <c r="C15" t="n">
         <v>0.09</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2001,7 +2055,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2015,14 +2069,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2036,14 +2090,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2052,13 +2106,19 @@
       <c r="C19" t="n">
         <v>0.09</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2073,7 +2133,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2082,10 +2142,25 @@
       <c r="C21" t="n">
         <v>0.09</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.17</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>7.265</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,12 +499,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,24 +514,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,14 +546,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -573,14 +573,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -607,12 +607,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -627,14 +627,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -654,65 +654,65 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.115</v>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1.050</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -727,14 +727,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -754,14 +754,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -781,19 +781,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -808,19 +808,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -835,14 +835,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -862,14 +862,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -889,14 +889,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -916,14 +916,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -943,19 +943,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -970,19 +970,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1004,7 +1004,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1031,25 +1031,52 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>2024-12-19</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1066,7 +1093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1300,17 +1327,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1320,14 +1347,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1354,12 +1381,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1369,7 +1396,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1381,7 +1408,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1408,12 +1435,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1423,7 +1450,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1435,7 +1462,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1450,7 +1477,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1462,7 +1489,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1489,22 +1516,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1516,7 +1543,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1526,12 +1553,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1543,7 +1570,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1558,7 +1585,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1570,7 +1597,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1585,7 +1612,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1597,7 +1624,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1612,7 +1639,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1624,12 +1651,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1639,7 +1666,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1651,7 +1678,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1678,25 +1705,52 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -1713,7 +1767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1947,7 +2001,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1961,35 +2015,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0.31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D12" t="n">
         <v>0.17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1998,13 +2052,19 @@
       <c r="C13" t="n">
         <v>0.09</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2019,7 +2079,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2034,7 +2094,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2043,19 +2103,13 @@
       <c r="C16" t="n">
         <v>0.09</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2076,7 +2130,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2090,14 +2144,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2111,14 +2165,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2127,13 +2181,19 @@
       <c r="C20" t="n">
         <v>0.09</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2148,7 +2208,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2157,10 +2217,25 @@
       <c r="C22" t="n">
         <v>0.09</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.17</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>7.265</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,58 +688,58 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.115</v>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1.050</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -754,14 +754,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -781,14 +781,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -808,19 +808,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -835,19 +835,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -862,14 +862,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -889,14 +889,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -916,14 +916,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -943,14 +943,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -970,19 +970,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -997,19 +997,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1031,7 +1031,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1058,25 +1058,52 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>2024-12-19</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1093,7 +1120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1462,34 +1489,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1504,7 +1531,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1516,7 +1543,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1543,22 +1570,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1570,7 +1597,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1580,12 +1607,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1597,7 +1624,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1612,7 +1639,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1624,7 +1651,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1639,7 +1666,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1651,7 +1678,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1666,7 +1693,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1678,12 +1705,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1693,7 +1720,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1705,7 +1732,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1732,25 +1759,52 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -1767,7 +1821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,49 +2034,49 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D10" t="n">
         <v>0.17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0.31</v>
       </c>
       <c r="C11" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D11" t="n">
         <v>0.17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2036,35 +2090,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.31</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D13" t="n">
         <v>0.17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2073,13 +2127,19 @@
       <c r="C14" t="n">
         <v>0.09</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2094,7 +2154,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2109,7 +2169,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2118,19 +2178,13 @@
       <c r="C17" t="n">
         <v>0.09</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2151,7 +2205,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2165,14 +2219,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2186,14 +2240,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2202,13 +2256,19 @@
       <c r="C21" t="n">
         <v>0.09</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2223,7 +2283,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2232,10 +2292,25 @@
       <c r="C23" t="n">
         <v>0.09</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.17</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>7.265</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,12 +472,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -499,12 +499,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,12 +526,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,24 +541,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,14 +573,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -600,14 +600,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -634,12 +634,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -654,14 +654,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -681,19 +681,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -703,70 +703,70 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.115</v>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1.050</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -781,14 +781,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -808,14 +808,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -835,19 +835,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -862,19 +862,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -889,14 +889,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -916,14 +916,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -943,14 +943,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -970,14 +970,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -997,19 +997,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1024,19 +1024,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1058,7 +1058,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1085,25 +1085,52 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>2024-12-19</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1120,7 +1147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,39 +1732,39 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1747,7 +1774,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1759,7 +1786,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1786,25 +1813,52 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -1821,7 +1875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2184,28 +2238,28 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0.31</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D18" t="n">
         <v>0.17</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2226,7 +2280,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2240,14 +2294,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2261,14 +2315,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2277,13 +2331,19 @@
       <c r="C22" t="n">
         <v>0.09</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2298,7 +2358,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2307,10 +2367,25 @@
       <c r="C24" t="n">
         <v>0.09</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.17</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>7.265</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,12 +1085,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1112,25 +1112,52 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>2024-12-19</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1147,7 +1174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1300,34 +1327,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1354,12 +1381,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1369,7 +1396,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1381,44 +1408,44 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1428,14 +1455,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1462,12 +1489,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1477,7 +1504,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1489,7 +1516,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1516,61 +1543,61 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1585,7 +1612,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1597,7 +1624,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1624,22 +1651,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1651,7 +1678,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1661,12 +1688,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1678,7 +1705,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1693,7 +1720,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1705,7 +1732,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1720,7 +1747,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1732,66 +1759,66 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1801,7 +1828,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1813,7 +1840,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1840,25 +1867,52 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -1875,7 +1929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2088,7 +2142,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2102,56 +2156,56 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0.31</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D11" t="n">
         <v>0.17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0.31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D12" t="n">
         <v>0.17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2165,35 +2219,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D14" t="n">
         <v>0.17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2202,13 +2256,19 @@
       <c r="C15" t="n">
         <v>0.09</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2223,7 +2283,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2238,49 +2298,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0.31</v>
       </c>
       <c r="C18" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>7.295</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0.31</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2301,7 +2355,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2315,14 +2369,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2336,14 +2390,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2352,13 +2406,19 @@
       <c r="C23" t="n">
         <v>0.09</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2373,7 +2433,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2382,10 +2442,25 @@
       <c r="C25" t="n">
         <v>0.09</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.17</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>7.265</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -499,12 +499,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,12 +526,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -553,12 +553,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,24 +568,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,14 +600,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,14 +627,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -661,12 +661,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -681,14 +681,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -708,19 +708,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -730,70 +730,70 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.115</v>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1.050</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -808,14 +808,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -835,14 +835,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -862,19 +862,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -889,19 +889,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -916,14 +916,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -943,14 +943,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -970,14 +970,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -997,14 +997,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1024,19 +1024,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1051,19 +1051,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1085,12 +1085,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1112,12 +1112,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1139,25 +1139,52 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>2024-12-19</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1174,7 +1201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,34 +1273,34 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1300,7 +1327,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1315,7 +1342,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1327,61 +1354,61 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1408,12 +1435,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1423,7 +1450,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1435,44 +1462,44 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1482,14 +1509,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1516,12 +1543,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1531,7 +1558,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1543,7 +1570,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1570,61 +1597,61 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1639,7 +1666,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1651,7 +1678,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1678,22 +1705,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1705,7 +1732,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1715,12 +1742,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1732,7 +1759,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1747,7 +1774,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1759,7 +1786,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1774,7 +1801,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1786,66 +1813,66 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1855,7 +1882,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1867,7 +1894,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1894,25 +1921,52 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -1929,7 +1983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2100,49 +2154,49 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.31</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0.31</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D9" t="n">
         <v>0.17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2156,14 +2210,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2177,56 +2231,56 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0.31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D12" t="n">
         <v>0.17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.31</v>
       </c>
       <c r="C13" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D13" t="n">
         <v>0.17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2240,35 +2294,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0.31</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D15" t="n">
         <v>0.17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2277,13 +2331,19 @@
       <c r="C16" t="n">
         <v>0.09</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2298,7 +2358,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2313,49 +2373,43 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0.31</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.295</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.31</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2376,7 +2430,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2390,14 +2444,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2411,14 +2465,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2427,13 +2481,19 @@
       <c r="C24" t="n">
         <v>0.09</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2448,7 +2508,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2457,10 +2517,25 @@
       <c r="C26" t="n">
         <v>0.09</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.17</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>7.265</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,25 +1166,52 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1.180</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>2024-12-19</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1201,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1813,93 +1840,93 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1909,7 +1936,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1921,7 +1948,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1948,25 +1975,52 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -1983,7 +2037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2259,49 +2313,49 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.31</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D13" t="n">
         <v>0.17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D14" t="n">
         <v>0.17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2315,35 +2369,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0.31</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D16" t="n">
         <v>0.17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2352,13 +2406,19 @@
       <c r="C17" t="n">
         <v>0.09</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2373,7 +2433,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2388,49 +2448,43 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.31</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>7.295</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.31</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2451,7 +2505,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2465,14 +2519,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2486,14 +2540,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2502,13 +2556,19 @@
       <c r="C25" t="n">
         <v>0.09</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2523,7 +2583,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2532,10 +2592,25 @@
       <c r="C27" t="n">
         <v>0.09</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.17</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>7.265</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,12 +815,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -830,19 +830,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -862,14 +862,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -889,19 +889,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -916,19 +916,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -943,14 +943,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -970,14 +970,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -997,14 +997,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1024,14 +1024,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1051,19 +1051,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1078,19 +1078,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1112,12 +1112,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1139,12 +1139,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1166,12 +1166,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1193,25 +1193,52 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1.180</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>2024-12-19</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1228,7 +1255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1597,34 +1624,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1651,61 +1678,61 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1720,7 +1747,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1732,7 +1759,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1759,22 +1786,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1786,7 +1813,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1796,12 +1823,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1813,7 +1840,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1828,7 +1855,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1840,120 +1867,120 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1963,7 +1990,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1975,7 +2002,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2002,25 +2029,52 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -2037,7 +2091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2313,7 +2367,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2334,49 +2388,49 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D14" t="n">
         <v>0.17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0.31</v>
       </c>
       <c r="C15" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D15" t="n">
         <v>0.17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2390,35 +2444,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0.31</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2427,13 +2481,19 @@
       <c r="C18" t="n">
         <v>0.09</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2448,7 +2508,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2463,49 +2523,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.31</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7.295</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0.31</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D22" t="n">
         <v>0.17</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2526,7 +2580,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2540,14 +2594,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2561,14 +2615,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2577,13 +2631,19 @@
       <c r="C26" t="n">
         <v>0.09</v>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2598,7 +2658,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2607,10 +2667,25 @@
       <c r="C28" t="n">
         <v>0.09</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.17</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>7.265</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1193,7 +1193,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1220,25 +1220,52 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.180</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>2024-12-19</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1255,7 +1282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1543,7 +1570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1553,12 +1580,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1570,17 +1597,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1590,14 +1617,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1624,61 +1651,61 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1705,61 +1732,61 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1774,7 +1801,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1786,7 +1813,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1813,22 +1840,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1840,7 +1867,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1850,12 +1877,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1867,7 +1894,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1882,7 +1909,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1894,120 +1921,120 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2017,7 +2044,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2029,7 +2056,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2056,25 +2083,52 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -2091,7 +2145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,28 +2613,28 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0.31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D23" t="n">
         <v>0.17</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2601,7 +2655,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2615,14 +2669,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2636,14 +2690,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2652,13 +2706,19 @@
       <c r="C27" t="n">
         <v>0.09</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2673,7 +2733,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2682,10 +2742,25 @@
       <c r="C29" t="n">
         <v>0.09</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.17</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>7.265</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="infolink" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="energytrend" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="pvinsights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="infolink" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="energytrend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pvinsights" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,39 +472,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1.100</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,19 +506,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -546,19 +538,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,19 +560,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -600,19 +592,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -627,19 +619,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -654,19 +646,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -681,14 +673,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -715,7 +707,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -735,19 +727,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -757,43 +749,51 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.115</v>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -808,19 +808,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -830,19 +830,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -862,14 +862,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -889,14 +889,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -916,14 +916,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -943,19 +943,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -977,12 +977,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -997,19 +997,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1024,19 +1024,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1051,19 +1051,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1073,24 +1073,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1112,12 +1112,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1166,12 +1166,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1220,7 +1220,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1247,12 +1247,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1327,22 +1327,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1354,34 +1354,34 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1435,7 +1435,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1462,39 +1462,39 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1516,12 +1516,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1543,7 +1543,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1570,66 +1570,66 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1651,7 +1651,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1678,39 +1678,39 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1759,17 +1759,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1779,14 +1779,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1840,103 +1840,103 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1948,49 +1948,49 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2002,49 +2002,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2056,22 +2056,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2083,22 +2083,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2110,22 +2110,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2190,7 +2190,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2199,19 +2199,13 @@
       <c r="C2" t="n">
         <v>0.09</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2220,40 +2214,28 @@
       <c r="C3" t="n">
         <v>0.09</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0.31</v>
       </c>
       <c r="C4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7.280</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2262,19 +2244,13 @@
       <c r="C5" t="n">
         <v>0.09</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2283,19 +2259,13 @@
       <c r="C6" t="n">
         <v>0.09</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2309,35 +2279,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.31</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2351,119 +2321,119 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D10" t="n">
         <v>0.17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0.31</v>
       </c>
       <c r="C11" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D11" t="n">
         <v>0.17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0.31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D12" t="n">
         <v>0.17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.31</v>
       </c>
       <c r="C13" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D13" t="n">
         <v>0.17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D14" t="n">
         <v>0.17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2477,56 +2447,56 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0.31</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D16" t="n">
         <v>0.17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0.31</v>
       </c>
       <c r="C17" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2540,14 +2510,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2556,43 +2526,61 @@
       <c r="C19" t="n">
         <v>0.09</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.31</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7.280</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.31</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7.280</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2606,14 +2594,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2627,142 +2615,154 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0.31</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D24" t="n">
         <v>0.17</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0.31</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D25" t="n">
         <v>0.17</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D26" t="n">
         <v>0.17</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D27" t="n">
         <v>0.17</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0.31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0.31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D30" t="n">
         <v>0.17</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="infolink" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="energytrend" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pvinsights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="infolink" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="energytrend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="pvinsights" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,31 +472,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.115</v>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,19 +514,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -538,19 +546,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -560,19 +568,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -592,19 +600,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -619,19 +627,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -646,19 +654,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -673,14 +681,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,7 +715,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -727,19 +735,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -749,51 +757,43 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -808,19 +808,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -830,19 +830,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -862,14 +862,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -889,14 +889,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -916,14 +916,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -943,19 +943,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -977,12 +977,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -997,19 +997,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1024,19 +1024,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1051,19 +1051,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1073,24 +1073,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1112,12 +1112,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1139,12 +1139,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1166,7 +1166,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1193,12 +1193,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1220,7 +1220,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1247,7 +1247,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1262,10 +1262,37 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1.050</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1282,7 +1309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,22 +1354,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1354,12 +1381,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1369,7 +1396,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1381,7 +1408,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1408,7 +1435,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1435,7 +1462,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1450,7 +1477,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1462,22 +1489,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1489,12 +1516,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1504,7 +1531,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1516,12 +1543,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1531,7 +1558,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1543,22 +1570,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1570,7 +1597,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1585,7 +1612,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1597,22 +1624,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1624,22 +1651,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1651,7 +1678,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1678,7 +1705,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1705,22 +1732,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1732,12 +1759,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1747,7 +1774,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1759,12 +1786,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1774,7 +1801,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1786,22 +1813,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1813,27 +1840,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
@@ -1867,76 +1894,76 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1948,22 +1975,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1975,22 +2002,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2002,22 +2029,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2029,12 +2056,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2044,7 +2071,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2056,22 +2083,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2083,52 +2110,79 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -2145,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,7 +2244,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2199,13 +2253,19 @@
       <c r="C2" t="n">
         <v>0.09</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2214,28 +2274,40 @@
       <c r="C3" t="n">
         <v>0.09</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0.31</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7.280</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2244,13 +2316,19 @@
       <c r="C5" t="n">
         <v>0.09</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2259,13 +2337,19 @@
       <c r="C6" t="n">
         <v>0.09</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2279,35 +2363,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.31</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2321,119 +2405,119 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D10" t="n">
         <v>0.17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0.31</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D11" t="n">
         <v>0.17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0.31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D12" t="n">
         <v>0.17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.31</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D13" t="n">
         <v>0.17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D14" t="n">
         <v>0.17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2447,56 +2531,56 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0.31</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D16" t="n">
         <v>0.17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0.31</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2510,14 +2594,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2526,61 +2610,43 @@
       <c r="C19" t="n">
         <v>0.09</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.31</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>7.280</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.31</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7.280</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2594,14 +2660,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2615,14 +2681,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2636,133 +2702,142 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0.31</v>
       </c>
       <c r="C25" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D25" t="n">
         <v>0.17</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D26" t="n">
         <v>0.17</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D27" t="n">
         <v>0.17</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0.31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0.31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D30" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.17</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>7.330</t>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7.265</t>
         </is>
       </c>
     </row>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,12 +472,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -487,24 +487,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,24 +514,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,19 +546,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -580,12 +580,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,19 +600,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -634,12 +634,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -654,19 +654,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -676,24 +676,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -708,14 +708,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -735,14 +735,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -769,31 +769,39 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.115</v>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -803,7 +811,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -815,12 +823,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -830,19 +838,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -869,7 +877,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -896,7 +904,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -923,12 +931,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -938,12 +946,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
@@ -977,7 +985,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1004,12 +1012,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1019,24 +1027,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1046,24 +1054,24 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1078,19 +1086,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1105,14 +1113,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1139,12 +1147,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1166,12 +1174,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1181,19 +1189,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1213,46 +1221,38 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1.180</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1262,37 +1262,64 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>1.180</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1309,7 +1336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,22 +1381,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1381,12 +1408,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1396,7 +1423,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1408,66 +1435,66 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1477,7 +1504,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1489,12 +1516,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1504,7 +1531,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1516,12 +1543,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1531,7 +1558,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1543,7 +1570,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1570,22 +1597,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1597,7 +1624,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1612,7 +1639,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1624,22 +1651,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1651,22 +1678,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1678,12 +1705,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1693,7 +1720,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1705,12 +1732,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1720,7 +1747,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1732,22 +1759,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1759,12 +1786,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1774,7 +1801,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1786,22 +1813,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1813,22 +1840,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1840,61 +1867,61 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1921,7 +1948,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1931,12 +1958,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1948,22 +1975,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1975,7 +2002,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2002,49 +2029,49 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2056,22 +2083,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2083,12 +2110,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2098,7 +2125,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2110,49 +2137,49 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2164,12 +2191,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2179,10 +2206,37 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -2199,7 +2253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2244,28 +2298,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0.31</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D2" t="n">
         <v>0.17</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2286,28 +2340,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0.31</v>
       </c>
       <c r="C4" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D4" t="n">
         <v>0.17</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2316,19 +2370,13 @@
       <c r="C5" t="n">
         <v>0.09</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2349,7 +2397,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2363,56 +2411,56 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.31</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0.31</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D9" t="n">
         <v>0.17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2433,7 +2481,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2447,14 +2495,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2468,14 +2516,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2489,35 +2537,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D14" t="n">
         <v>0.17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2531,77 +2579,71 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0.31</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D16" t="n">
         <v>0.17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0.31</v>
       </c>
       <c r="C17" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.280</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0.31</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D18" t="n">
         <v>0.17</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2610,13 +2652,19 @@
       <c r="C19" t="n">
         <v>0.09</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2631,7 +2679,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2640,13 +2688,19 @@
       <c r="C21" t="n">
         <v>0.09</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2660,14 +2714,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2688,28 +2742,28 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0.31</v>
       </c>
       <c r="C24" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D24" t="n">
         <v>0.17</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2723,14 +2777,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2751,28 +2805,28 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D27" t="n">
         <v>0.17</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.290</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2781,34 +2835,34 @@
       <c r="C28" t="n">
         <v>0.09</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7.295</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2823,21 +2877,42 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0.31</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D31" t="n">
         <v>0.17</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.299</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7.295</t>
         </is>
       </c>
     </row>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1201,12 +1201,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1216,70 +1216,70 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.115</v>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1289,37 +1289,64 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1.180</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>2024-12-25</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1336,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1813,7 +1840,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1823,12 +1850,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1840,7 +1867,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1850,12 +1877,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1867,7 +1894,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1894,7 +1921,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1904,12 +1931,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1921,22 +1948,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1948,12 +1975,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1963,7 +1990,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1975,22 +2002,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2002,22 +2029,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2029,76 +2056,76 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2110,12 +2137,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2125,7 +2152,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2137,12 +2164,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2152,7 +2179,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2164,7 +2191,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2174,12 +2201,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2191,12 +2218,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2218,25 +2245,52 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>2024-12-28</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>0.28</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -2253,7 +2307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,22 +2415,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0.31</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.290</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2385,19 +2445,13 @@
       <c r="C6" t="n">
         <v>0.09</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2411,14 +2465,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2432,35 +2486,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0.31</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D9" t="n">
         <v>0.17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2481,7 +2535,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2495,14 +2549,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2523,7 +2577,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2537,35 +2591,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D14" t="n">
         <v>0.17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2579,14 +2633,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2607,7 +2661,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2616,55 +2670,55 @@
       <c r="C17" t="n">
         <v>0.09</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0.31</v>
       </c>
       <c r="C18" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0.31</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2673,13 +2727,19 @@
       <c r="C20" t="n">
         <v>0.09</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2688,40 +2748,34 @@
       <c r="C21" t="n">
         <v>0.09</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0.31</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D22" t="n">
         <v>0.17</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2735,35 +2789,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0.31</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D24" t="n">
         <v>0.17</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2777,14 +2831,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2798,107 +2852,107 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D27" t="n">
         <v>0.17</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0.31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7.290</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>7.295</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0.31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7.295</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0.31</v>
       </c>
       <c r="C31" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>7.299</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2911,6 +2965,27 @@
         <v>0.17</v>
       </c>
       <c r="E32" t="inlineStr">
+        <is>
+          <t>7.299</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>7.295</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,12 +769,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -796,12 +796,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -823,12 +823,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -850,12 +850,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -865,19 +865,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -924,14 +924,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -951,19 +951,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -973,24 +973,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1032,19 +1032,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1054,24 +1054,24 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1093,12 +1093,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1120,12 +1120,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1140,19 +1140,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1162,24 +1162,24 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1201,7 +1201,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1221,19 +1221,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1243,24 +1243,24 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1270,70 +1270,70 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.115</v>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1343,37 +1343,64 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1.180</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>2024-12-25</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1390,7 +1417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2218,22 +2245,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2245,7 +2272,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2255,12 +2282,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2272,12 +2299,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2299,7 +2326,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2326,25 +2353,52 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>2025-01-31</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>0.295</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -2361,7 +2415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2469,7 +2523,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2483,29 +2537,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.31</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7.290</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2514,19 +2574,13 @@
       <c r="C7" t="n">
         <v>0.09</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2540,14 +2594,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2561,35 +2615,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D10" t="n">
         <v>0.17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2610,7 +2664,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2624,14 +2678,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2652,7 +2706,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2666,35 +2720,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0.31</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D15" t="n">
         <v>0.17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2708,14 +2762,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2736,7 +2790,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2745,55 +2799,55 @@
       <c r="C18" t="n">
         <v>0.09</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0.31</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.31</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2802,13 +2856,19 @@
       <c r="C21" t="n">
         <v>0.09</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2817,40 +2877,34 @@
       <c r="C22" t="n">
         <v>0.09</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0.31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D23" t="n">
         <v>0.17</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2864,77 +2918,77 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0.31</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D25" t="n">
         <v>0.17</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D26" t="n">
         <v>0.17</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D27" t="n">
         <v>0.17</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2948,107 +3002,107 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D29" t="n">
         <v>0.17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0.31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7.290</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0.31</v>
       </c>
       <c r="C31" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>7.295</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0.31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7.295</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0.31</v>
       </c>
       <c r="C33" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>7.299</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3061,6 +3115,27 @@
         <v>0.17</v>
       </c>
       <c r="E34" t="inlineStr">
+        <is>
+          <t>7.299</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>7.295</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="infolink" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="energytrend" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="pvinsights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="infolink" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="energytrend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pvinsights" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,28 +472,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1.050</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="3">
@@ -526,12 +518,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,19 +538,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,24 +560,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,19 +592,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -622,19 +614,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -654,19 +646,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -676,24 +668,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -708,14 +700,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -735,19 +727,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -757,24 +749,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -784,19 +776,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -816,19 +808,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -838,24 +830,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -865,7 +857,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -877,7 +869,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -897,14 +889,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -924,19 +916,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -951,19 +943,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -978,19 +970,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1000,7 +992,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1012,12 +1004,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1039,12 +1031,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1059,19 +1051,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1081,7 +1073,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1093,7 +1085,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1120,12 +1112,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1135,7 +1127,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1147,12 +1139,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1162,24 +1154,24 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1189,7 +1181,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1201,12 +1193,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1216,7 +1208,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1228,12 +1220,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1243,19 +1235,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1282,12 +1274,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1297,43 +1289,51 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.115</v>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1.180</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1343,19 +1343,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1382,12 +1382,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1462,22 +1462,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1489,12 +1489,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1516,66 +1516,66 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1597,7 +1597,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1651,12 +1651,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1678,7 +1678,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1705,7 +1705,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1759,12 +1759,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1786,12 +1786,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1813,12 +1813,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1840,12 +1840,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1867,7 +1867,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1894,22 +1894,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1921,22 +1921,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1948,22 +1948,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1975,103 +1975,103 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2083,22 +2083,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2110,22 +2110,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2137,34 +2137,34 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2191,22 +2191,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2218,22 +2218,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2245,7 +2245,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2272,22 +2272,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2299,22 +2299,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2326,22 +2326,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2353,22 +2353,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2460,28 +2460,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0.31</v>
       </c>
       <c r="C2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>7.295</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2490,19 +2484,13 @@
       <c r="C3" t="n">
         <v>0.09</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2511,61 +2499,43 @@
       <c r="C4" t="n">
         <v>0.09</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0.31</v>
       </c>
       <c r="C5" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.260</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.31</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.290</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2574,13 +2544,19 @@
       <c r="C7" t="n">
         <v>0.09</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7.200</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2594,14 +2570,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2615,14 +2591,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2636,119 +2612,119 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0.31</v>
       </c>
       <c r="C11" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D11" t="n">
         <v>0.17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0.31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D12" t="n">
         <v>0.17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.31</v>
       </c>
       <c r="C13" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D13" t="n">
         <v>0.17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D14" t="n">
         <v>0.17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0.31</v>
       </c>
       <c r="C15" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D15" t="n">
         <v>0.17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2769,7 +2745,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2783,14 +2759,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2804,14 +2780,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2820,13 +2796,19 @@
       <c r="C19" t="n">
         <v>0.09</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2840,71 +2822,77 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.31</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0.31</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7.280</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0.31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D23" t="n">
         <v>0.17</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2918,14 +2906,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2939,35 +2927,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D26" t="n">
         <v>0.17</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2981,56 +2969,56 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0.31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D29" t="n">
         <v>0.17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3044,29 +3032,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0.31</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3080,29 +3074,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.290</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0.31</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>7.290</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3116,14 +3116,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="infolink" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="energytrend" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pvinsights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="infolink" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="energytrend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="pvinsights" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,20 +472,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.115</v>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -518,12 +526,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,19 +546,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -560,24 +568,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -592,19 +600,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -614,19 +622,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -646,19 +654,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -668,24 +676,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -700,14 +708,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -727,19 +735,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -749,24 +757,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -776,19 +784,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -808,19 +816,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -830,24 +838,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -857,7 +865,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -869,7 +877,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -889,14 +897,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -916,19 +924,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -938,7 +946,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -950,12 +958,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -970,19 +978,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -997,19 +1005,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1019,7 +1027,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1031,12 +1039,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1058,12 +1066,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1073,24 +1081,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1100,7 +1108,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1112,7 +1120,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1139,12 +1147,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1154,7 +1162,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1166,12 +1174,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1181,19 +1189,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1208,7 +1216,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1220,12 +1228,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1235,7 +1243,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1247,12 +1255,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1262,19 +1270,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1301,12 +1309,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1316,51 +1324,43 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1.180</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1370,19 +1370,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1401,6 +1401,33 @@
         </is>
       </c>
       <c r="E36" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1.050</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1417,7 +1444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1462,22 +1489,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1489,12 +1516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1504,7 +1531,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1516,66 +1543,66 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1585,7 +1612,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1597,7 +1624,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1607,7 +1634,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1624,7 +1651,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1639,7 +1666,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1651,12 +1678,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1666,7 +1693,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1678,7 +1705,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1693,7 +1720,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1705,7 +1732,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1732,12 +1759,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1747,7 +1774,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1759,12 +1786,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1774,7 +1801,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1786,12 +1813,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1801,7 +1828,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1813,12 +1840,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1828,7 +1855,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1840,12 +1867,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1855,7 +1882,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1867,7 +1894,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1894,22 +1921,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1921,22 +1948,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1948,22 +1975,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1975,103 +2002,103 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2083,22 +2110,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2110,22 +2137,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2137,22 +2164,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2164,34 +2191,34 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2218,22 +2245,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2245,22 +2272,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2272,7 +2299,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2299,22 +2326,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2326,22 +2353,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2353,22 +2380,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2380,25 +2407,52 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>0.295</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -2415,7 +2469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2460,22 +2514,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0.31</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7.295</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2484,13 +2544,19 @@
       <c r="C3" t="n">
         <v>0.09</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2499,43 +2565,61 @@
       <c r="C4" t="n">
         <v>0.09</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0.31</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.260</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.31</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7.290</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2544,19 +2628,13 @@
       <c r="C7" t="n">
         <v>0.09</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7.200</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2570,14 +2648,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2591,14 +2669,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2612,140 +2690,140 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0.31</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D11" t="n">
         <v>0.17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0.31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D12" t="n">
         <v>0.17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.31</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D13" t="n">
         <v>0.17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D14" t="n">
         <v>0.17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0.31</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D15" t="n">
         <v>0.17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0.31</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D16" t="n">
         <v>0.17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2766,7 +2844,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2780,14 +2858,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2801,35 +2879,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.31</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>7.280</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2843,77 +2915,71 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0.31</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D22" t="n">
         <v>0.17</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0.31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>7.295</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0.31</v>
       </c>
       <c r="C24" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D24" t="n">
         <v>0.17</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2927,14 +2993,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2948,35 +3014,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D27" t="n">
         <v>0.17</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2990,56 +3056,56 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D29" t="n">
         <v>0.17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0.31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D30" t="n">
         <v>0.17</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3053,35 +3119,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.290</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0.31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>7.290</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3095,35 +3155,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0.31</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>7.260</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3137,7 +3191,28 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.299</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7.295</t>
         </is>
       </c>
     </row>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,12 +499,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,19 +514,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -546,19 +546,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -580,12 +580,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,19 +600,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -654,19 +654,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -676,24 +676,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -708,19 +708,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -742,12 +742,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -769,12 +769,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -796,12 +796,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -823,7 +823,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -850,12 +850,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -904,12 +904,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -919,24 +919,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -946,19 +946,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -978,14 +978,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1012,12 +1012,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1039,7 +1039,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1086,19 +1086,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1120,12 +1120,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1147,7 +1147,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1174,12 +1174,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1194,24 +1194,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1219,21 +1219,17 @@
           <t>0.300</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1243,7 +1239,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1255,12 +1251,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1270,24 +1266,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1297,70 +1293,70 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.115</v>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1370,24 +1366,24 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1397,24 +1393,24 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1424,10 +1420,37 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1.100</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1444,7 +1467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1489,22 +1512,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1516,22 +1539,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1543,76 +1566,76 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1624,22 +1647,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1651,39 +1674,39 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1693,7 +1716,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1705,7 +1728,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1715,12 +1738,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1732,49 +1755,49 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1786,7 +1809,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1813,12 +1836,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1828,7 +1851,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1840,22 +1863,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1867,12 +1890,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1882,7 +1905,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1894,12 +1917,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1909,7 +1932,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1921,22 +1944,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1948,22 +1971,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1975,22 +1998,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2002,7 +2025,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2012,12 +2035,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2029,22 +2052,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2056,7 +2079,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2066,12 +2089,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2083,22 +2106,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2110,22 +2133,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2137,22 +2160,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2164,22 +2187,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2191,49 +2214,49 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2245,49 +2268,49 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2326,7 +2349,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2336,7 +2359,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2353,7 +2376,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2363,12 +2386,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2407,22 +2430,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2434,27 +2457,54 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.214</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.039</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.74</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2514,7 +2564,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2535,91 +2585,91 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0.31</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D3" t="n">
         <v>0.17</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.290</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0.31</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D4" t="n">
         <v>0.17</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0.31</v>
       </c>
       <c r="C5" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D5" t="n">
         <v>0.17</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.31</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D6" t="n">
         <v>0.17</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2628,13 +2678,19 @@
       <c r="C7" t="n">
         <v>0.09</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2648,56 +2704,56 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0.31</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D9" t="n">
         <v>0.17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D10" t="n">
         <v>0.17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2711,14 +2767,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2732,14 +2788,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2753,51 +2809,45 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D14" t="n">
         <v>0.17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0.31</v>
       </c>
       <c r="C15" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2823,28 +2873,28 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0.31</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2853,19 +2903,13 @@
       <c r="C18" t="n">
         <v>0.09</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2879,14 +2923,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2895,34 +2939,40 @@
       <c r="C20" t="n">
         <v>0.09</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7.247</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.31</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2943,22 +2993,28 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0.31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7.295</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2967,19 +3023,13 @@
       <c r="C24" t="n">
         <v>0.09</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2993,56 +3043,56 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D26" t="n">
         <v>0.17</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D27" t="n">
         <v>0.17</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3056,113 +3106,113 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D29" t="n">
         <v>0.17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0.31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D30" t="n">
         <v>0.17</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0.31</v>
       </c>
       <c r="C31" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>7.290</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0.31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0.31</v>
       </c>
       <c r="C33" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D33" t="n">
         <v>0.17</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3171,48 +3221,69 @@
       <c r="C34" t="n">
         <v>0.09</v>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0.31</v>
       </c>
       <c r="C35" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D35" t="n">
         <v>0.17</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0.31</v>
       </c>
       <c r="C36" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.11</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D37" t="n">
         <v>0.17</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>7.295</t>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>7.290</t>
         </is>
       </c>
     </row>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,85 +1278,81 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.115</v>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1366,24 +1362,24 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1393,24 +1389,24 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1420,37 +1416,64 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1.180</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>2025-01-04</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>1.100</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>0.290</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1467,7 +1490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2403,49 +2426,49 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2457,7 +2480,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2484,25 +2507,52 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>0.214</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>0.039</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
@@ -2519,7 +2569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3071,7 +3121,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3092,7 +3142,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3106,14 +3156,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3127,14 +3177,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3148,71 +3198,71 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0.31</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7.280</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0.31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0.31</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D33" t="n">
         <v>0.17</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3226,14 +3276,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3254,7 +3304,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3263,25 +3313,46 @@
       <c r="C36" t="n">
         <v>0.09</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C37" t="n">
+      <c r="B38" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C38" t="n">
         <v>0.11</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>0.17</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>7.290</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -3361,4 +3361,303 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F1A2D71-CD85-41D7-A3A8-D424B54AC2CC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22F72B89-38E8-4C97-AEC6-91E50D593E0D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D3281CC-D3CF-4E85-A2CF-5D7E7A640D1D}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,7 +1278,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1301,85 +1301,81 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.115</v>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1389,24 +1385,24 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1416,24 +1412,24 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1443,37 +1439,64 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1.180</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>2025-01-04</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>1.100</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>0.290</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1490,7 +1513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,12 +2314,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2306,46 +2329,46 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2372,22 +2395,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2399,7 +2422,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2409,7 +2432,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2426,76 +2449,76 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2507,7 +2530,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2534,25 +2557,52 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>0.214</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>0.039</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
@@ -2569,7 +2619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3100,49 +3150,49 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D26" t="n">
         <v>0.17</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D27" t="n">
         <v>0.17</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3163,7 +3213,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3177,14 +3227,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3198,14 +3248,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3219,71 +3269,71 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0.31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7.280</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0.31</v>
       </c>
       <c r="C33" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0.31</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D34" t="n">
         <v>0.17</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3297,14 +3347,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3325,7 +3375,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3334,25 +3384,46 @@
       <c r="C37" t="n">
         <v>0.09</v>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="B39" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C39" t="n">
         <v>0.11</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D39" t="n">
         <v>0.17</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>7.290</t>
         </is>
@@ -3361,303 +3432,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
-    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
-    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
-    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F1A2D71-CD85-41D7-A3A8-D424B54AC2CC}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22F72B89-38E8-4C97-AEC6-91E50D593E0D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D3281CC-D3CF-4E85-A2CF-5D7E7A640D1D}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,39 +904,35 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -946,19 +942,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -978,14 +974,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1005,19 +1001,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1027,24 +1023,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1054,19 +1050,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1086,19 +1082,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1120,12 +1116,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1135,7 +1131,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1147,12 +1143,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1162,7 +1158,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1174,7 +1170,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1194,47 +1190,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1242,16 +1242,12 @@
           <t>0.300</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1278,30 +1274,34 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1324,85 +1324,81 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.115</v>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1412,24 +1408,24 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1439,24 +1435,24 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1466,37 +1462,64 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1.180</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>2025-01-04</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>1.100</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>0.290</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1513,7 +1536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2017,34 +2040,34 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2059,7 +2082,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2071,22 +2094,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2098,22 +2121,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2125,22 +2148,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2152,7 +2175,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2179,7 +2202,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2206,22 +2229,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2233,22 +2256,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2260,7 +2283,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2287,22 +2310,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2314,39 +2337,39 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2356,46 +2379,46 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2422,22 +2445,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2449,7 +2472,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2459,7 +2482,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2476,76 +2499,76 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2557,7 +2580,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2584,25 +2607,52 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>0.214</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>0.039</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
@@ -2619,7 +2669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2895,7 +2945,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2909,35 +2959,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D14" t="n">
         <v>0.17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2946,34 +2996,34 @@
       <c r="C15" t="n">
         <v>0.09</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0.31</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.280</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2987,29 +3037,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0.31</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3018,19 +3074,13 @@
       <c r="C19" t="n">
         <v>0.09</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3044,14 +3094,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3065,14 +3115,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3086,71 +3136,71 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0.31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D23" t="n">
         <v>0.17</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0.31</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7.295</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0.31</v>
       </c>
       <c r="C25" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3164,56 +3214,56 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D27" t="n">
         <v>0.17</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0.31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3234,7 +3284,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3248,14 +3298,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3269,14 +3319,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3290,71 +3340,71 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0.31</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>7.280</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0.31</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0.31</v>
       </c>
       <c r="C35" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D35" t="n">
         <v>0.17</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3368,14 +3418,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3396,7 +3446,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3405,25 +3455,46 @@
       <c r="C38" t="n">
         <v>0.09</v>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B40" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C40" t="n">
         <v>0.11</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D40" t="n">
         <v>0.17</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>7.290</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,34 +981,30 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1028,19 +1024,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1050,24 +1046,24 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1077,19 +1073,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1109,19 +1105,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1143,12 +1139,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1158,7 +1154,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1170,12 +1166,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1185,7 +1181,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1197,7 +1193,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1217,47 +1213,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1265,16 +1265,12 @@
           <t>0.300</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1301,30 +1297,34 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1347,85 +1347,81 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.115</v>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1435,24 +1431,24 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1462,24 +1458,24 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1489,37 +1485,64 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1.180</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>2025-01-04</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>1.100</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>0.290</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1536,7 +1559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2040,7 +2063,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2067,34 +2090,34 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2109,7 +2132,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2121,22 +2144,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2148,22 +2171,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2175,22 +2198,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2202,7 +2225,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2229,7 +2252,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2256,22 +2279,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2283,22 +2306,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2310,7 +2333,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2337,22 +2360,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2364,39 +2387,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2406,46 +2429,46 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2472,22 +2495,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2499,7 +2522,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2509,7 +2532,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2526,76 +2549,76 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2607,7 +2630,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2634,25 +2657,52 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>0.214</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>0.039</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
@@ -2669,7 +2719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3467,34 +3517,55 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0.31</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B41" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C41" t="n">
         <v>0.11</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D41" t="n">
         <v>0.17</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>7.290</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,67 +1220,67 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1288,16 +1288,12 @@
           <t>0.300</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1324,30 +1320,34 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1370,85 +1370,81 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.115</v>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1458,24 +1454,24 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1485,24 +1481,24 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1512,37 +1508,64 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1.180</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>2025-01-04</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>1.100</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>0.290</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1559,7 +1582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2549,103 +2572,103 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2657,7 +2680,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2684,25 +2707,52 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>0.214</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>0.039</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
@@ -2719,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3475,14 +3525,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0.31</v>
       </c>
       <c r="C37" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D37" t="n">
         <v>0.17</v>
@@ -3496,7 +3546,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3517,14 +3567,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0.31</v>
       </c>
       <c r="C39" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D39" t="n">
         <v>0.17</v>
@@ -3538,34 +3588,55 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0.31</v>
       </c>
       <c r="C40" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C41" t="n">
+      <c r="B42" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C42" t="n">
         <v>0.11</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D42" t="n">
         <v>0.17</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>7.290</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -3645,4 +3645,303 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A960BBE-6EAB-4176-AFC9-58A074F6B5D0}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C42B40-94BA-475C-A1A1-2F7F0CCB9444}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75AD14D3-6017-44BE-B9D1-AF360E895F43}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,39 +526,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,19 +569,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,19 +596,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -622,24 +618,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -649,7 +645,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -661,12 +657,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -681,19 +677,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -715,12 +711,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -735,14 +731,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -769,12 +765,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -784,7 +780,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -796,7 +792,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,12 +819,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -838,7 +834,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -850,7 +846,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -877,12 +873,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -892,74 +888,74 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -969,69 +965,69 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1051,19 +1047,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1073,24 +1069,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1100,19 +1096,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1132,19 +1128,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1166,12 +1162,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1181,7 +1177,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1193,12 +1189,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1208,7 +1204,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1220,90 +1216,94 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1311,16 +1311,12 @@
           <t>0.300</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1347,30 +1343,34 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1393,85 +1393,81 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.115</v>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1481,24 +1477,24 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1508,24 +1504,24 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1535,37 +1531,64 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1.180</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>2025-01-04</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>1.100</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>0.290</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1582,7 +1605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1897,49 +1920,49 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1951,7 +1974,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1978,22 +2001,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2005,22 +2028,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2032,12 +2055,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2047,7 +2070,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2059,22 +2082,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2086,34 +2109,34 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2140,34 +2163,34 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2182,7 +2205,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2194,22 +2217,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2221,22 +2244,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2248,22 +2271,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2275,7 +2298,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2302,7 +2325,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2329,22 +2352,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2356,22 +2379,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2383,7 +2406,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2410,22 +2433,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2437,39 +2460,39 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2479,46 +2502,46 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2545,22 +2568,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2572,130 +2595,130 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2707,7 +2730,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2734,25 +2757,52 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>0.214</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>0.039</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
@@ -2769,7 +2819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3144,7 +3194,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3158,29 +3208,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0.31</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3189,19 +3245,13 @@
       <c r="C20" t="n">
         <v>0.09</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3215,14 +3265,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3236,14 +3286,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3257,71 +3307,71 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0.31</v>
       </c>
       <c r="C24" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D24" t="n">
         <v>0.17</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0.31</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7.295</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3335,56 +3385,56 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0.31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D29" t="n">
         <v>0.17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3405,7 +3455,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3419,14 +3469,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3440,14 +3490,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3461,99 +3511,99 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0.31</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7.280</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0.31</v>
       </c>
       <c r="C35" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0.31</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D36" t="n">
         <v>0.17</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0.31</v>
       </c>
       <c r="C37" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D37" t="n">
         <v>0.17</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0.31</v>
       </c>
       <c r="C38" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D38" t="n">
         <v>0.17</v>
@@ -3567,7 +3617,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3588,14 +3638,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0.31</v>
       </c>
       <c r="C40" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D40" t="n">
         <v>0.17</v>
@@ -3609,34 +3659,55 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0.31</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="B43" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C43" t="n">
         <v>0.11</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>0.17</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>7.290</t>
         </is>
@@ -3645,303 +3716,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
-    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
-    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
-    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A960BBE-6EAB-4176-AFC9-58A074F6B5D0}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C42B40-94BA-475C-A1A1-2F7F0CCB9444}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75AD14D3-6017-44BE-B9D1-AF360E895F43}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -3716,4 +3716,303 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA28233-5D36-4B0A-B1EE-4FADC87140C8}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21DBD9ED-D7BB-4A45-BEDA-35F97B0D8041}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2876B0-BD93-478D-A167-14694B2D8294}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,25 +1570,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>2025-01-04</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>1.100</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>0.290</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1605,7 +1628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,49 +2024,49 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2055,22 +2078,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2082,12 +2105,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2097,7 +2120,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2109,22 +2132,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2136,34 +2159,34 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2190,34 +2213,34 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2232,7 +2255,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2244,22 +2267,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2271,22 +2294,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2298,22 +2321,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2325,7 +2348,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2352,7 +2375,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2379,22 +2402,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2406,22 +2429,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2433,7 +2456,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2460,22 +2483,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2487,39 +2510,39 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2529,46 +2552,46 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2595,22 +2618,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2622,130 +2645,130 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2757,7 +2780,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2784,25 +2807,52 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>0.214</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>0.039</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
@@ -2819,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3392,7 +3442,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3406,56 +3456,56 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D29" t="n">
         <v>0.17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0.31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D30" t="n">
         <v>0.17</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3476,7 +3526,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3490,14 +3540,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3511,14 +3561,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3532,99 +3582,99 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0.31</v>
       </c>
       <c r="C35" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>7.280</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0.31</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0.31</v>
       </c>
       <c r="C37" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D37" t="n">
         <v>0.17</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0.31</v>
       </c>
       <c r="C38" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D38" t="n">
         <v>0.17</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0.31</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D39" t="n">
         <v>0.17</v>
@@ -3638,7 +3688,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3659,14 +3709,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0.31</v>
       </c>
       <c r="C41" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D41" t="n">
         <v>0.17</v>
@@ -3680,34 +3730,55 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0.31</v>
       </c>
       <c r="C42" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="B44" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C44" t="n">
         <v>0.11</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D44" t="n">
         <v>0.17</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>7.290</t>
         </is>
@@ -3716,303 +3787,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
-    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
-    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA28233-5D36-4B0A-B1EE-4FADC87140C8}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21DBD9ED-D7BB-4A45-BEDA-35F97B0D8041}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2876B0-BD93-478D-A167-14694B2D8294}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -3787,4 +3787,303 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26147226-AF23-4B30-BE1E-D526B55CDE5A}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5FF3A1-5DDC-4B7B-B604-D43B9D36251D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD5FAEEA-34EC-477B-870D-12BF1F2B385F}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,89 +499,85 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -596,19 +592,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,19 +619,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -645,24 +641,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -672,7 +668,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -684,12 +680,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -704,19 +700,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -738,12 +734,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -758,14 +754,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -792,12 +788,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -807,7 +803,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -819,7 +815,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -846,12 +842,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -861,7 +857,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -873,7 +869,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -900,12 +896,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -915,74 +911,74 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -992,69 +988,69 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1074,19 +1070,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1096,24 +1092,24 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1123,19 +1119,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1155,19 +1151,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1189,12 +1185,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1204,7 +1200,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1216,12 +1212,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1231,7 +1227,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1243,90 +1239,94 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1334,16 +1334,12 @@
           <t>0.300</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1370,30 +1366,34 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1416,85 +1416,81 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.115</v>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1504,24 +1500,24 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1531,24 +1527,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1558,60 +1554,87 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>2025-01-04</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>1.100</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>0.290</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1628,7 +1651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2186,7 +2209,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2196,24 +2219,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2240,34 +2263,34 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2282,7 +2305,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2294,22 +2317,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2321,22 +2344,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2348,22 +2371,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2375,7 +2398,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2402,7 +2425,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2429,22 +2452,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2456,22 +2479,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2483,7 +2506,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2510,22 +2533,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2537,39 +2560,39 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2579,46 +2602,46 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2645,22 +2668,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2672,130 +2695,130 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2807,7 +2830,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2834,25 +2857,52 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>0.214</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>0.039</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
@@ -2869,7 +2919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3625,7 +3675,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3639,63 +3689,63 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0.31</v>
       </c>
       <c r="C38" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D38" t="n">
         <v>0.17</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0.31</v>
       </c>
       <c r="C39" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D39" t="n">
         <v>0.17</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0.31</v>
       </c>
       <c r="C40" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D40" t="n">
         <v>0.17</v>
@@ -3709,7 +3759,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3730,14 +3780,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0.31</v>
       </c>
       <c r="C42" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
@@ -3751,34 +3801,55 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0.31</v>
       </c>
       <c r="C43" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="B45" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C45" t="n">
         <v>0.11</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D45" t="n">
         <v>0.17</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>7.290</t>
         </is>
@@ -3787,303 +3858,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
-    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
-    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26147226-AF23-4B30-BE1E-D526B55CDE5A}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5FF3A1-5DDC-4B7B-B604-D43B9D36251D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD5FAEEA-34EC-477B-870D-12BF1F2B385F}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -3858,4 +3858,303 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3FA0DC2-9FCC-44CD-A222-C7AFD3367E34}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8975F6CE-0962-4A4D-B303-888914296B02}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96660EE-D2FE-404C-BA49-F55E8A29DA7B}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1158,39 +1158,35 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1212,12 +1208,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1227,7 +1223,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1239,12 +1235,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1254,7 +1250,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1266,90 +1262,94 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1357,16 +1357,12 @@
           <t>0.300</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1393,30 +1389,34 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1439,85 +1439,81 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.115</v>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1527,24 +1523,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1554,24 +1550,24 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1581,60 +1577,87 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>2025-01-04</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>1.100</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>0.290</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1651,7 +1674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2020,103 +2043,103 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2128,22 +2151,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2155,12 +2178,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2170,7 +2193,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2182,22 +2205,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2209,34 +2232,34 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2246,24 +2269,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2290,34 +2313,34 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2332,7 +2355,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2344,22 +2367,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2371,22 +2394,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2398,22 +2421,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2425,7 +2448,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2452,7 +2475,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2479,22 +2502,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2506,22 +2529,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2533,7 +2556,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2560,22 +2583,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2587,39 +2610,39 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2629,46 +2652,46 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2695,22 +2718,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2722,130 +2745,130 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2857,7 +2880,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2884,25 +2907,52 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>0.214</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>0.039</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
@@ -2919,7 +2969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3576,7 +3626,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3590,14 +3640,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3611,14 +3661,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3632,14 +3682,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3653,50 +3703,50 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0.31</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7.280</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0.31</v>
       </c>
       <c r="C37" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>7.350</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3710,63 +3760,63 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0.31</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D39" t="n">
         <v>0.17</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0.31</v>
       </c>
       <c r="C40" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D40" t="n">
         <v>0.17</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0.31</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D41" t="n">
         <v>0.17</v>
@@ -3780,7 +3830,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3801,14 +3851,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0.31</v>
       </c>
       <c r="C43" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D43" t="n">
         <v>0.17</v>
@@ -3822,34 +3872,55 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0.31</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C45" t="n">
+      <c r="B46" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C46" t="n">
         <v>0.11</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D46" t="n">
         <v>0.17</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>7.290</t>
         </is>
@@ -3858,303 +3929,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
-    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
-    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3FA0DC2-9FCC-44CD-A222-C7AFD3367E34}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8975F6CE-0962-4A4D-B303-888914296B02}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96660EE-D2FE-404C-BA49-F55E8A29DA7B}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,39 +1181,35 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1235,12 +1231,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1250,7 +1246,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1262,12 +1258,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1277,7 +1273,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1289,90 +1285,94 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1380,16 +1380,12 @@
           <t>0.300</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1416,30 +1412,34 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1462,85 +1462,81 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.115</v>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1550,24 +1546,24 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1577,24 +1573,24 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1604,60 +1600,87 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>2025-01-04</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>1.100</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>0.290</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1674,7 +1697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1908,34 +1931,34 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1945,12 +1968,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1962,34 +1985,34 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1999,174 +2022,174 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2178,22 +2201,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2205,12 +2228,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2220,7 +2243,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2232,22 +2255,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2259,34 +2282,34 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2296,24 +2319,24 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2340,34 +2363,34 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2382,7 +2405,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2394,22 +2417,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2421,22 +2444,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2448,22 +2471,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2475,7 +2498,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2502,7 +2525,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2529,22 +2552,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2556,22 +2579,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2583,7 +2606,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2610,22 +2633,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2637,39 +2660,39 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2679,46 +2702,46 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2745,22 +2768,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2772,130 +2795,130 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2907,7 +2930,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2934,25 +2957,52 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>0.214</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>0.039</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
@@ -2969,7 +3019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3731,43 +3781,43 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0.31</v>
       </c>
       <c r="C37" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>7.305</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0.31</v>
       </c>
       <c r="C38" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>7.350</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3781,63 +3831,63 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0.31</v>
       </c>
       <c r="C40" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D40" t="n">
         <v>0.17</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0.31</v>
       </c>
       <c r="C41" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D41" t="n">
         <v>0.17</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0.31</v>
       </c>
       <c r="C42" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
@@ -3851,7 +3901,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3872,14 +3922,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0.31</v>
       </c>
       <c r="C44" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D44" t="n">
         <v>0.17</v>
@@ -3893,34 +3943,55 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0.31</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="B47" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C47" t="n">
         <v>0.11</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D47" t="n">
         <v>0.17</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>7.290</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -4000,4 +4000,303 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{912230A0-A2F7-4833-977E-7409D363BC01}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B8034BD-2485-43DB-ABBB-C7543BC891A2}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0539484A-249B-44A2-8FF9-E7D03374E3E3}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,12 +472,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -487,47 +487,51 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,19 +541,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -564,7 +568,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.330</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -572,7 +576,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -592,19 +596,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -614,7 +618,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -626,39 +630,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.030</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -668,24 +664,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -695,7 +691,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -707,7 +703,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -727,19 +723,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -754,19 +750,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -776,7 +772,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -788,39 +784,35 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -830,24 +822,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -857,7 +849,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -869,12 +861,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -884,7 +876,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -896,12 +888,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -911,24 +903,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -943,173 +935,165 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1119,7 +1103,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1131,7 +1115,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1151,37 +1135,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1191,7 +1179,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1204,12 +1192,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1219,7 +1207,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1231,39 +1219,35 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1273,7 +1257,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1285,12 +1269,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1305,42 +1289,46 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1355,64 +1343,64 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1427,7 +1415,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1439,58 +1427,66 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1500,38 +1496,46 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.115</v>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1.050</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1558,34 +1562,30 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1605,19 +1605,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1627,19 +1627,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1662,25 +1662,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>0.730</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1.050</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1697,7 +1720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1742,22 +1765,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1769,39 +1792,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1811,7 +1834,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1823,22 +1846,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1850,22 +1873,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1877,61 +1900,61 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1958,22 +1981,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1985,7 +2008,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1995,12 +2018,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2012,76 +2035,76 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2093,61 +2116,61 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2174,49 +2197,49 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2228,12 +2251,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2243,7 +2266,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2255,49 +2278,49 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2309,88 +2332,88 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2405,7 +2428,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2417,7 +2440,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2427,12 +2450,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2444,49 +2467,49 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2498,27 +2521,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
@@ -2552,103 +2575,103 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2660,103 +2683,103 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2768,34 +2791,34 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2805,12 +2828,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2822,49 +2845,49 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2876,76 +2899,76 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2957,22 +2980,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2984,27 +3007,54 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.78</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3064,28 +3114,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0.31</v>
       </c>
       <c r="C2" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D2" t="n">
         <v>0.17</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3099,14 +3149,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3120,35 +3170,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0.31</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D5" t="n">
         <v>0.17</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3162,35 +3212,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0.31</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D7" t="n">
         <v>0.17</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3204,35 +3254,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0.31</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D9" t="n">
         <v>0.17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3246,14 +3296,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3267,14 +3317,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.290</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3288,35 +3338,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.31</v>
       </c>
       <c r="C13" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D13" t="n">
         <v>0.17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3330,35 +3380,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0.31</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D15" t="n">
         <v>0.17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3367,13 +3417,19 @@
       <c r="C16" t="n">
         <v>0.09</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3387,14 +3443,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3408,71 +3464,77 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0.31</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.31</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7.265</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.31</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3481,40 +3543,34 @@
       <c r="C22" t="n">
         <v>0.09</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>7.247</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0.31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D23" t="n">
         <v>0.17</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.290</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3528,50 +3584,56 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0.31</v>
       </c>
       <c r="C25" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D25" t="n">
         <v>0.17</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7.295</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3585,14 +3647,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3606,77 +3668,77 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D29" t="n">
         <v>0.17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0.31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D30" t="n">
         <v>0.17</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0.31</v>
       </c>
       <c r="C31" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D31" t="n">
         <v>0.17</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3690,14 +3752,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3711,14 +3773,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3732,14 +3794,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3753,14 +3815,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3774,14 +3836,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3795,14 +3857,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3838,28 +3900,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0.31</v>
       </c>
       <c r="C40" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3868,19 +3924,13 @@
       <c r="C41" t="n">
         <v>0.09</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>7.247</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3894,409 +3944,131 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0.31</v>
       </c>
       <c r="C43" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D43" t="n">
         <v>0.17</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0.31</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D44" t="n">
         <v>0.17</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0.31</v>
       </c>
       <c r="C45" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D45" t="n">
         <v>0.17</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0.31</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0.31</v>
       </c>
       <c r="C47" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>7.290</t>
+        <v>0.09</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7.200</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
-    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
-    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{912230A0-A2F7-4833-977E-7409D363BC01}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B8034BD-2485-43DB-ABBB-C7543BC891A2}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0539484A-249B-44A2-8FF9-E7D03374E3E3}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1427,39 +1427,35 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1469,7 +1465,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1481,12 +1477,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1496,7 +1492,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1508,12 +1504,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1523,7 +1519,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1535,12 +1531,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1555,64 +1551,64 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1632,37 +1628,41 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1685,25 +1685,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.730</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1720,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2737,49 +2760,49 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2791,61 +2814,61 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2860,7 +2883,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2872,22 +2895,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2899,7 +2922,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2926,61 +2949,61 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2990,12 +3013,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3007,7 +3030,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3017,12 +3040,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3034,25 +3057,52 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>2024-12-04</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>1.05</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>0.285</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -3069,7 +3119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3972,7 +4022,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3986,71 +4036,77 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0.31</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D45" t="n">
         <v>0.17</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0.31</v>
       </c>
       <c r="C46" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D46" t="n">
         <v>0.17</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0.31</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -4059,10 +4115,25 @@
       <c r="C48" t="n">
         <v>0.09</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>7.200</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -4142,4 +4142,303 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B528F52-C28D-4C86-8FD8-7363FE36B341}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3FB20CA-994F-4F19-924C-B7AB622D46E0}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{738A2BEF-52DA-4E2E-8D2A-1713D6DD37F9}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1192,84 +1192,80 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1289,19 +1285,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1316,19 +1312,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1343,19 +1339,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1365,124 +1361,124 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.295</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1492,7 +1488,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1504,12 +1500,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1519,7 +1515,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1531,12 +1527,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1546,7 +1542,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1558,12 +1554,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1578,64 +1574,64 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1655,37 +1651,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1708,25 +1708,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.730</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1743,7 +1766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2085,7 +2108,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2095,24 +2118,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2127,7 +2150,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2139,12 +2162,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2154,7 +2177,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2166,34 +2189,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2220,7 +2243,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2230,56 +2253,56 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2289,7 +2312,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2301,76 +2324,76 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2382,12 +2405,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2409,22 +2432,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2436,12 +2459,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2451,7 +2474,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2463,7 +2486,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2473,12 +2496,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2490,142 +2513,142 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2635,201 +2658,201 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2841,61 +2864,61 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2910,7 +2933,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2922,22 +2945,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2949,7 +2972,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2976,61 +2999,61 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3040,12 +3063,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3057,7 +3080,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3067,12 +3090,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3084,25 +3107,52 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>2024-12-04</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>1.05</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>0.285</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -3119,7 +3169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3332,7 +3382,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3346,14 +3396,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3367,14 +3417,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3388,56 +3438,56 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.290</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.31</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D13" t="n">
         <v>0.17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D14" t="n">
         <v>0.17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3451,56 +3501,56 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0.31</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D16" t="n">
         <v>0.17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0.31</v>
       </c>
       <c r="C17" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3514,56 +3564,56 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0.31</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.31</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3577,71 +3627,71 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0.31</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7.280</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0.31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>7.290</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0.31</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D24" t="n">
         <v>0.17</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.290</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3655,35 +3705,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D26" t="n">
         <v>0.17</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3697,14 +3747,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3718,98 +3768,98 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D29" t="n">
         <v>0.17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0.31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D30" t="n">
         <v>0.17</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0.31</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D31" t="n">
         <v>0.17</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0.31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D32" t="n">
         <v>0.17</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3823,14 +3873,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3844,14 +3894,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3865,14 +3915,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3886,14 +3936,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3914,58 +3964,64 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0.31</v>
       </c>
       <c r="C38" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7.260</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0.31</v>
       </c>
       <c r="C39" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>7.350</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0.31</v>
       </c>
       <c r="C40" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>7.350</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3980,28 +4036,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0.31</v>
       </c>
       <c r="C42" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -4015,14 +4065,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -4043,7 +4093,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4057,71 +4107,77 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0.31</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D46" t="n">
         <v>0.17</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0.31</v>
       </c>
       <c r="C47" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D47" t="n">
         <v>0.17</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0.31</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4130,10 +4186,25 @@
       <c r="C49" t="n">
         <v>0.09</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>7.200</t>
         </is>
@@ -4142,303 +4213,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
-    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
-    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B528F52-C28D-4C86-8FD8-7363FE36B341}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3FB20CA-994F-4F19-924C-B7AB622D46E0}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{738A2BEF-52DA-4E2E-8D2A-1713D6DD37F9}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1142,57 +1142,57 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1215,84 +1215,80 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1312,19 +1308,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1339,19 +1335,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1366,19 +1362,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1388,124 +1384,124 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.295</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1515,7 +1511,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1527,12 +1523,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1542,7 +1538,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1554,12 +1550,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1569,7 +1565,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1581,12 +1577,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1601,64 +1597,64 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1678,37 +1674,41 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1731,25 +1731,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.730</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1766,7 +1789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3134,25 +3157,52 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>2024-12-04</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>1.05</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>0.285</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -3169,7 +3219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4135,64 +4185,70 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0.31</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D47" t="n">
         <v>0.17</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0.31</v>
       </c>
       <c r="C48" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D48" t="n">
         <v>0.17</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0.31</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4201,10 +4257,25 @@
       <c r="C50" t="n">
         <v>0.09</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>7.200</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -4284,4 +4284,309 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="122426dadd4212b0c94bb7fdd569e94d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1889529ed04855864ffdcec696839eb" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="27" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5ED5700-79FB-4EEF-B43F-96DDF0927839}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBCEB77F-8DCD-4C6A-9C82-365BC048C31B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{168568A9-4F24-426C-B1A0-EF59CC186B42}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -834,39 +834,35 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.295</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -876,7 +872,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -888,12 +884,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -908,19 +904,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -942,12 +938,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -957,42 +953,46 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1015,57 +1015,57 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1088,39 +1088,35 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1130,92 +1126,96 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1238,84 +1238,80 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1335,19 +1331,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1362,19 +1358,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1389,19 +1385,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1411,124 +1407,124 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.295</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1538,7 +1534,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1550,12 +1546,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1565,7 +1561,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1577,12 +1573,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1592,7 +1588,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1604,12 +1600,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1624,64 +1620,64 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1701,37 +1697,41 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1754,25 +1754,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.730</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>2024-12-22</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>1.050</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>0.120</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>0.280</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>0.100</t>
         </is>
@@ -1789,7 +1812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,39 +2343,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2362,7 +2385,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2374,76 +2397,76 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2455,12 +2478,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2482,22 +2505,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2509,12 +2532,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2524,7 +2547,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2536,7 +2559,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2546,12 +2569,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2563,142 +2586,142 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2708,201 +2731,201 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2914,61 +2937,61 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2983,7 +3006,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2995,22 +3018,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3022,7 +3045,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3049,61 +3072,61 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3113,12 +3136,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3130,7 +3153,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3140,12 +3163,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3157,52 +3180,79 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>2024-12-04</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>1.05</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>0.285</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
@@ -3219,7 +3269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4035,58 +4085,64 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0.31</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>7.260</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0.31</v>
       </c>
       <c r="C40" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>7.350</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0.31</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>7.350</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -4101,28 +4157,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0.31</v>
       </c>
       <c r="C43" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -4136,14 +4186,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4164,7 +4214,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -4178,14 +4228,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -4199,71 +4249,77 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0.31</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D48" t="n">
         <v>0.17</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0.31</v>
       </c>
       <c r="C49" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D49" t="n">
         <v>0.17</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0.31</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4272,10 +4328,25 @@
       <c r="C51" t="n">
         <v>0.09</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>7.200</t>
         </is>
@@ -4284,309 +4355,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="122426dadd4212b0c94bb7fdd569e94d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1889529ed04855864ffdcec696839eb" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
-    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
-    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceBillingMetadata" ma:index="27" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5ED5700-79FB-4EEF-B43F-96DDF0927839}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBCEB77F-8DCD-4C6A-9C82-365BC048C31B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{168568A9-4F24-426C-B1A0-EF59CC186B42}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -4355,4 +4355,309 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="122426dadd4212b0c94bb7fdd569e94d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1889529ed04855864ffdcec696839eb" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="27" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B5EB70-FFD3-4C22-8579-37DC9CDF1EEB}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFC0781F-CC8D-4CAC-A3FE-F6C85C9BA683}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38529293-C689-435B-B645-F4DC9DA8CE18}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,84 +791,80 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -888,69 +884,69 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -960,24 +956,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -987,7 +983,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -999,12 +995,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1019,19 +1015,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1046,37 +1042,41 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1099,7 +1099,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1122,39 +1122,35 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1164,24 +1160,24 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1191,24 +1187,24 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1223,19 +1219,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1257,12 +1253,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1272,7 +1268,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1284,7 +1280,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1311,57 +1307,57 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1381,19 +1377,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1408,19 +1404,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1435,37 +1431,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1488,34 +1488,30 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1542,12 +1538,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1557,19 +1553,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1596,57 +1592,57 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1661,7 +1657,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1673,62 +1669,62 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1738,7 +1734,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1750,12 +1746,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1765,7 +1761,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1777,7 +1773,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1797,32 +1793,59 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>0.085</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>0.730</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>0.330</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1835,7 +1858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2393,66 +2416,66 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2462,46 +2485,46 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2528,34 +2551,34 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2565,24 +2588,24 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2609,103 +2632,103 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2717,12 +2740,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2732,7 +2755,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2744,7 +2767,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2754,12 +2777,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2771,22 +2794,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2798,61 +2821,61 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2879,76 +2902,76 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2960,22 +2983,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2987,22 +3010,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3014,147 +3037,147 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3176,34 +3199,34 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3230,22 +3253,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3257,22 +3280,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3284,25 +3307,52 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -3319,7 +3369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3631,7 +3681,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3645,14 +3695,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.190</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3666,35 +3716,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.290</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0.31</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3715,70 +3765,70 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0.31</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.31</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.31</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3792,50 +3842,50 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0.31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7.290</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0.31</v>
       </c>
       <c r="C24" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3849,14 +3899,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3870,77 +3920,77 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D27" t="n">
         <v>0.17</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0.31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D29" t="n">
         <v>0.17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3949,13 +3999,19 @@
       <c r="C30" t="n">
         <v>0.09</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7.200</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3964,19 +4020,13 @@
       <c r="C31" t="n">
         <v>0.09</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3990,14 +4040,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4011,35 +4061,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0.31</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D34" t="n">
         <v>0.17</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -4053,35 +4103,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0.31</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D36" t="n">
         <v>0.17</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -4102,7 +4152,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -4116,77 +4166,77 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0.31</v>
       </c>
       <c r="C39" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D39" t="n">
         <v>0.17</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0.31</v>
       </c>
       <c r="C40" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D40" t="n">
         <v>0.17</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0.31</v>
       </c>
       <c r="C41" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D41" t="n">
         <v>0.17</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -4200,14 +4250,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -4221,14 +4271,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -4242,14 +4292,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4270,7 +4320,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -4284,14 +4334,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -4305,14 +4355,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.190</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -4326,14 +4376,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.190</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4354,70 +4404,91 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0.31</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>7.260</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0.31</v>
       </c>
       <c r="C51" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>7.299</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0.31</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>7.299</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>2025-01-10</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C53" t="n">
+      <c r="B54" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C54" t="n">
         <v>0.11</v>
       </c>
-      <c r="D53" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E53" t="inlineStr">
+      <c r="D54" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>7.330</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,17 +791,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -814,84 +814,80 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -911,69 +907,69 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -983,24 +979,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1010,7 +1006,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1022,12 +1018,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1042,19 +1038,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1069,37 +1065,41 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1122,7 +1122,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1145,39 +1145,35 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1187,24 +1183,24 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1214,24 +1210,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1246,19 +1242,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1280,12 +1276,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1295,7 +1291,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1307,7 +1303,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1334,57 +1330,57 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1404,19 +1400,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1431,19 +1427,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1458,37 +1454,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1511,34 +1511,30 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1565,12 +1561,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1580,19 +1576,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1619,57 +1615,57 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1684,7 +1680,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1696,62 +1692,62 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1761,7 +1757,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1773,12 +1769,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1788,7 +1784,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1800,7 +1796,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1820,32 +1816,59 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>0.085</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>0.730</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>0.330</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1858,7 +1881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,39 +2250,39 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>35.5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2269,7 +2292,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2281,22 +2304,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2308,22 +2331,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2335,76 +2358,76 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2416,93 +2439,93 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2512,46 +2535,46 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2578,34 +2601,34 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2615,24 +2638,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2659,103 +2682,103 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2767,12 +2790,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2782,7 +2805,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2794,7 +2817,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2804,12 +2827,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2821,22 +2844,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2848,61 +2871,61 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2929,76 +2952,76 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3010,22 +3033,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3037,22 +3060,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3064,147 +3087,147 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3226,34 +3249,34 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3280,22 +3303,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3307,22 +3330,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3334,25 +3357,52 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -3369,7 +3419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4494,6 +4544,27 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>7.185</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,39 +1769,35 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.295</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1811,7 +1807,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1823,7 +1819,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1843,32 +1839,59 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>0.085</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>0.730</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>0.330</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1881,7 +1904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2007,76 +2030,76 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>35.5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2088,22 +2111,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2115,12 +2138,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2130,7 +2153,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2142,12 +2165,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2157,7 +2180,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2169,39 +2192,39 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2216,100 +2239,100 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>35.5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2319,7 +2342,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2331,22 +2354,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2358,22 +2381,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2385,76 +2408,76 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2466,93 +2489,93 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2562,46 +2585,46 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2628,34 +2651,34 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2665,24 +2688,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2709,103 +2732,103 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2817,12 +2840,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2832,7 +2855,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2844,7 +2867,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2854,12 +2877,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2871,22 +2894,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2898,61 +2921,61 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2979,76 +3002,76 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3060,22 +3083,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3087,22 +3110,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3114,147 +3137,147 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3276,34 +3299,34 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3330,22 +3353,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3357,22 +3380,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3384,25 +3407,52 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -3419,7 +3469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3569,7 +3619,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3583,50 +3633,50 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.185</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.31</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7.280</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0.31</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>7.260</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3640,14 +3690,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3661,14 +3711,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3682,14 +3732,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3703,14 +3753,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3724,14 +3774,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3745,14 +3795,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.190</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3766,14 +3816,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.190</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3787,35 +3837,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.290</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0.31</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D18" t="n">
         <v>0.17</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3836,70 +3886,70 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.31</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.31</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0.31</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D22" t="n">
         <v>0.17</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3913,50 +3963,50 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0.31</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7.290</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0.31</v>
       </c>
       <c r="C25" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3970,14 +4020,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3991,77 +4041,77 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0.31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D29" t="n">
         <v>0.17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0.31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D30" t="n">
         <v>0.17</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4070,13 +4120,19 @@
       <c r="C31" t="n">
         <v>0.09</v>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7.200</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4085,19 +4141,13 @@
       <c r="C32" t="n">
         <v>0.09</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4111,14 +4161,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -4132,35 +4182,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0.31</v>
       </c>
       <c r="C35" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D35" t="n">
         <v>0.17</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -4174,35 +4224,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0.31</v>
       </c>
       <c r="C37" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D37" t="n">
         <v>0.17</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -4223,7 +4273,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -4237,77 +4287,77 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0.31</v>
       </c>
       <c r="C40" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D40" t="n">
         <v>0.17</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0.31</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D41" t="n">
         <v>0.17</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0.31</v>
       </c>
       <c r="C42" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -4321,14 +4371,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -4342,14 +4392,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4363,14 +4413,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -4391,7 +4441,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -4405,14 +4455,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -4426,14 +4476,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.190</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4447,14 +4497,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.190</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4475,79 +4525,79 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0.31</v>
       </c>
       <c r="C51" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>7.260</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0.31</v>
       </c>
       <c r="C52" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>7.299</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0.31</v>
       </c>
       <c r="C53" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>7.299</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0.31</v>
       </c>
       <c r="C54" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4560,6 +4610,27 @@
         <v>0.17</v>
       </c>
       <c r="E55" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>7.185</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,39 +964,35 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1006,24 +1002,24 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1033,7 +1029,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1045,12 +1041,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1065,19 +1061,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1092,37 +1088,41 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1145,7 +1145,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1168,39 +1168,35 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1210,24 +1206,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1237,24 +1233,24 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1269,19 +1265,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1303,12 +1299,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1318,7 +1314,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1330,7 +1326,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1357,57 +1353,57 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1427,19 +1423,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1454,19 +1450,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1481,37 +1477,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1534,34 +1534,30 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1588,12 +1584,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1603,19 +1599,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1642,57 +1638,57 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1707,7 +1703,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1719,112 +1715,112 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.295</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1834,7 +1830,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1846,7 +1842,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1866,32 +1862,59 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>0.085</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>0.730</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>0.330</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1904,7 +1927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3056,49 +3079,49 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>35.5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3110,22 +3133,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3137,22 +3160,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3164,147 +3187,147 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3326,34 +3349,34 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3380,22 +3403,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3407,22 +3430,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3434,25 +3457,52 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -3469,7 +3519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3970,7 +4020,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3984,50 +4034,50 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.185</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0.31</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7.290</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4041,14 +4091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4062,77 +4112,77 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D29" t="n">
         <v>0.17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0.31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D30" t="n">
         <v>0.17</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0.31</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D31" t="n">
         <v>0.17</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4141,13 +4191,19 @@
       <c r="C32" t="n">
         <v>0.09</v>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7.200</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4156,19 +4212,13 @@
       <c r="C33" t="n">
         <v>0.09</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -4182,14 +4232,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -4203,35 +4253,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0.31</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D36" t="n">
         <v>0.17</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -4245,35 +4295,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0.31</v>
       </c>
       <c r="C38" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D38" t="n">
         <v>0.17</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -4294,7 +4344,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -4308,77 +4358,77 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0.31</v>
       </c>
       <c r="C41" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D41" t="n">
         <v>0.17</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0.31</v>
       </c>
       <c r="C42" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0.31</v>
       </c>
       <c r="C43" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D43" t="n">
         <v>0.17</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -4392,14 +4442,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4413,14 +4463,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -4434,14 +4484,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -4462,7 +4512,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -4476,14 +4526,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4497,14 +4547,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.190</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4518,14 +4568,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.190</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4546,79 +4596,79 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0.31</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>7.260</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0.31</v>
       </c>
       <c r="C53" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>7.299</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0.31</v>
       </c>
       <c r="C54" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>7.299</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0.31</v>
       </c>
       <c r="C55" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4631,6 +4681,27 @@
         <v>0.17</v>
       </c>
       <c r="E56" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>7.185</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1815,39 +1815,35 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.240</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.295</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1857,7 +1853,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1869,7 +1865,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1889,32 +1885,59 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>0.085</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>0.730</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>0.330</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1927,7 +1950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2296,93 +2319,93 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>35.5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2392,7 +2415,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2404,22 +2427,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2431,22 +2454,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2458,76 +2481,76 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2539,93 +2562,93 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2635,46 +2658,46 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2701,34 +2724,34 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2738,24 +2761,24 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2782,103 +2805,103 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2890,12 +2913,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2905,7 +2928,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2917,7 +2940,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2927,12 +2950,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2944,22 +2967,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2971,61 +2994,61 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3052,39 +3075,39 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3099,56 +3122,56 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>35.5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3160,22 +3183,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3187,22 +3210,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3214,147 +3237,147 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3376,34 +3399,34 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3430,22 +3453,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3457,22 +3480,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3484,25 +3507,52 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -3519,7 +3569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4386,7 +4436,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -4400,56 +4450,56 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.175</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0.31</v>
       </c>
       <c r="C43" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D43" t="n">
         <v>0.17</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0.31</v>
       </c>
       <c r="C44" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D44" t="n">
         <v>0.17</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4463,14 +4513,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -4484,14 +4534,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -4505,14 +4555,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -4533,7 +4583,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4547,14 +4597,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4568,14 +4618,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7.190</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4589,14 +4639,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.190</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4617,79 +4667,79 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0.31</v>
       </c>
       <c r="C53" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>7.260</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0.31</v>
       </c>
       <c r="C54" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>7.299</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0.31</v>
       </c>
       <c r="C55" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>7.299</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0.31</v>
       </c>
       <c r="C56" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4702,6 +4752,27 @@
         <v>0.17</v>
       </c>
       <c r="E57" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>7.185</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1168,22 +1168,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.240</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.330</t>
+          <t>0.720</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1191,39 +1191,35 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1233,24 +1229,24 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1260,24 +1256,24 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1292,19 +1288,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1326,12 +1322,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1341,7 +1337,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1353,7 +1349,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1380,57 +1376,57 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1450,19 +1446,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1477,19 +1473,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1504,37 +1500,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1557,34 +1557,30 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1611,12 +1607,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1626,19 +1622,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1665,57 +1661,57 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1730,7 +1726,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1742,85 +1738,89 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.240</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1838,39 +1838,35 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.240</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.295</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1880,7 +1876,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1892,7 +1888,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1912,32 +1908,59 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>0.085</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>0.730</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>0.330</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1950,7 +1973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2643,39 +2666,39 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2685,46 +2708,46 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2751,34 +2774,34 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2788,24 +2811,24 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2832,103 +2855,103 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2940,12 +2963,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2955,7 +2978,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2967,7 +2990,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2977,12 +3000,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2994,22 +3017,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3021,61 +3044,61 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3102,39 +3125,39 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3149,56 +3172,56 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>35.5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3210,22 +3233,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3237,22 +3260,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3264,147 +3287,147 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3426,34 +3449,34 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3480,22 +3503,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3507,22 +3530,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3534,25 +3557,52 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -3569,7 +3619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4310,49 +4360,49 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0.31</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D36" t="n">
         <v>0.17</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.175</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0.31</v>
       </c>
       <c r="C37" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D37" t="n">
         <v>0.17</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -4366,35 +4416,35 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0.31</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D39" t="n">
         <v>0.17</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -4415,7 +4465,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -4429,35 +4479,35 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0.31</v>
       </c>
       <c r="C42" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.175</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -4471,56 +4521,56 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.175</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0.31</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D44" t="n">
         <v>0.17</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0.31</v>
       </c>
       <c r="C45" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D45" t="n">
         <v>0.17</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -4534,14 +4584,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -4555,14 +4605,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -4576,14 +4626,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4604,7 +4654,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4618,14 +4668,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4639,14 +4689,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7.190</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4660,14 +4710,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.190</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4688,79 +4738,79 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0.31</v>
       </c>
       <c r="C54" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>7.260</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0.31</v>
       </c>
       <c r="C55" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>7.299</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0.31</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>7.299</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0.31</v>
       </c>
       <c r="C57" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4773,6 +4823,27 @@
         <v>0.17</v>
       </c>
       <c r="E58" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>7.185</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,22 +626,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.235</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.720</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -649,99 +649,99 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.115</v>
-      </c>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.085</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.730</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -764,67 +764,67 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -837,84 +837,80 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -934,52 +930,56 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.720</t>
+          <t>0.330</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -987,39 +987,35 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1029,24 +1025,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1056,7 +1052,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1068,12 +1064,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1088,19 +1084,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1115,37 +1111,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1168,22 +1168,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.240</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.720</t>
+          <t>0.330</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1191,22 +1191,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.240</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.330</t>
+          <t>0.720</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1214,39 +1214,35 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1256,24 +1252,24 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1283,24 +1279,24 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1315,19 +1311,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1349,12 +1345,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1364,7 +1360,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1376,7 +1372,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1403,57 +1399,57 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1473,19 +1469,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1500,19 +1496,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1527,37 +1523,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1580,34 +1580,30 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1634,12 +1630,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1649,19 +1645,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1688,57 +1684,57 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1753,7 +1749,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1765,85 +1761,89 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0.240</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1861,39 +1861,35 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.240</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.295</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1903,7 +1899,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1915,7 +1911,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1935,32 +1931,59 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>0.085</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>0.730</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>0.330</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1973,7 +1996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3395,66 +3418,66 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3476,34 +3499,34 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3530,22 +3553,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3557,22 +3580,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3584,25 +3607,52 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -3619,7 +3669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3931,7 +3981,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3945,14 +3995,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.170</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3966,14 +4016,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.190</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3987,14 +4037,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.190</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4008,35 +4058,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.290</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0.31</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4057,70 +4107,70 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.31</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0.31</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D22" t="n">
         <v>0.17</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0.31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D23" t="n">
         <v>0.17</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4134,14 +4184,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.185</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4155,50 +4205,50 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.185</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7.290</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4212,14 +4262,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4233,77 +4283,77 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0.31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D30" t="n">
         <v>0.17</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0.31</v>
       </c>
       <c r="C31" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D31" t="n">
         <v>0.17</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0.31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D32" t="n">
         <v>0.17</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4312,13 +4362,19 @@
       <c r="C33" t="n">
         <v>0.09</v>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>7.200</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -4327,19 +4383,13 @@
       <c r="C34" t="n">
         <v>0.09</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>7.235</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -4353,77 +4403,77 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0.31</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D36" t="n">
         <v>0.17</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.175</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0.31</v>
       </c>
       <c r="C37" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D37" t="n">
         <v>0.17</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.175</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0.31</v>
       </c>
       <c r="C38" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D38" t="n">
         <v>0.17</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -4437,35 +4487,35 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0.31</v>
       </c>
       <c r="C40" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D40" t="n">
         <v>0.17</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -4486,7 +4536,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -4500,35 +4550,35 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0.31</v>
       </c>
       <c r="C43" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D43" t="n">
         <v>0.17</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.175</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -4542,56 +4592,56 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.175</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0.31</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D45" t="n">
         <v>0.17</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0.31</v>
       </c>
       <c r="C46" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D46" t="n">
         <v>0.17</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -4605,14 +4655,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -4626,14 +4676,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4647,14 +4697,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4675,7 +4725,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4689,14 +4739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4710,14 +4760,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7.190</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4731,14 +4781,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.190</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4759,79 +4809,79 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0.31</v>
       </c>
       <c r="C55" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>7.260</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0.31</v>
       </c>
       <c r="C56" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>7.299</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0.31</v>
       </c>
       <c r="C57" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>7.299</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0.31</v>
       </c>
       <c r="C58" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4844,6 +4894,27 @@
         <v>0.17</v>
       </c>
       <c r="E59" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>7.185</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1603,34 +1603,30 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.235</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1657,12 +1653,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1672,19 +1668,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1711,57 +1707,57 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1776,7 +1772,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1788,85 +1784,89 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0.240</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1884,39 +1884,35 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.240</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.295</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1926,7 +1922,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1938,7 +1934,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1958,32 +1954,59 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>0.085</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>0.730</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>0.330</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1996,7 +2019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,34 +3036,34 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3050,12 +3073,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3067,22 +3090,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3094,61 +3117,61 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3175,39 +3198,39 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3222,56 +3245,56 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>35.5</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3283,22 +3306,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3310,22 +3333,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3337,174 +3360,174 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3526,34 +3549,34 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3580,22 +3603,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3607,22 +3630,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3634,25 +3657,52 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -3669,7 +3719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4536,28 +4586,28 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0.31</v>
       </c>
       <c r="C42" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.170</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -4571,35 +4621,35 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0.31</v>
       </c>
       <c r="C44" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D44" t="n">
         <v>0.17</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.175</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4613,56 +4663,56 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.175</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0.31</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D46" t="n">
         <v>0.17</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0.31</v>
       </c>
       <c r="C47" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D47" t="n">
         <v>0.17</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -4676,14 +4726,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4697,14 +4747,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4718,14 +4768,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4746,7 +4796,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4760,14 +4810,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4781,14 +4831,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7.190</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4802,14 +4852,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.190</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4830,79 +4880,79 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0.31</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>7.260</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0.31</v>
       </c>
       <c r="C57" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>7.299</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0.31</v>
       </c>
       <c r="C58" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>7.299</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0.31</v>
       </c>
       <c r="C59" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4915,6 +4965,27 @@
         <v>0.17</v>
       </c>
       <c r="E60" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>7.185</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,22 +649,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.230</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>0.680</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>0.700</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.300</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -672,99 +672,99 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.115</v>
-      </c>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.085</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.730</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -787,67 +787,67 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -860,84 +860,80 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -957,52 +953,56 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.720</t>
+          <t>0.330</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1010,39 +1010,35 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1052,24 +1048,24 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1079,7 +1075,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1091,12 +1087,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1111,19 +1107,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1138,37 +1134,41 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1191,22 +1191,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.240</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.720</t>
+          <t>0.330</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1214,22 +1214,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.240</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.330</t>
+          <t>0.720</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1237,39 +1237,35 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1279,24 +1275,24 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1306,24 +1302,24 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1338,19 +1334,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1372,12 +1368,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1387,7 +1383,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1399,7 +1395,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1426,57 +1422,57 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,19 +1492,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1523,19 +1519,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1550,37 +1546,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1603,22 +1603,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0.235</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.720</t>
+          <t>0.330</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1626,34 +1626,30 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.235</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1680,12 +1676,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1695,19 +1691,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1734,57 +1730,57 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1799,7 +1795,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1811,85 +1807,89 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0.240</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1907,39 +1907,35 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.240</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.295</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1949,7 +1945,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1961,7 +1957,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1981,32 +1977,59 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1.030</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>0.085</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>0.730</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>0.330</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2019,7 +2042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,12 +2924,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2916,115 +2939,115 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3036,61 +3059,61 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3100,12 +3123,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3117,22 +3140,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3144,61 +3167,61 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3225,39 +3248,39 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3272,56 +3295,56 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>35.5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3333,22 +3356,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3360,22 +3383,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3387,174 +3410,174 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3576,34 +3599,34 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3630,22 +3653,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3657,22 +3680,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3684,25 +3707,52 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -3719,7 +3769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4952,7 +5002,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4962,18 +5012,18 @@
         <v>0.11</v>
       </c>
       <c r="D60" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.180</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4986,6 +5036,27 @@
         <v>0.17</v>
       </c>
       <c r="E61" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>7.185</t>
         </is>

--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -5065,4 +5065,309 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="122426dadd4212b0c94bb7fdd569e94d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1889529ed04855864ffdcec696839eb" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="27" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B30EE9F-1FBB-4F86-9FF7-CCABD6E2E5CB}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{781DD00A-9951-434E-B6E1-14EF788656E9}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433170E4-6367-4438-A6E0-8A34CCDCF2FA}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,39 +495,35 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,19 +533,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -572,34 +568,30 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -626,110 +618,126 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.235</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.230</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.700</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.115</v>
-      </c>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.730</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.230</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.330</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -737,12 +745,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -752,7 +760,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -764,22 +772,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.235</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.330</t>
+          <t>0.720</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -787,108 +795,108 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.240</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.245</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0.680</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -898,7 +906,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -910,22 +918,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.330</t>
+          <t>0.720</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -933,12 +941,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -953,19 +961,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -975,97 +983,101 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.110</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1075,51 +1087,47 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1134,19 +1142,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1168,22 +1176,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.330</t>
+          <t>0.720</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1191,135 +1199,139 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.240</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1329,51 +1341,47 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1383,7 +1391,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1395,39 +1403,35 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1437,47 +1441,51 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1487,100 +1495,88 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.235</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.115</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1590,7 +1586,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1603,112 +1599,112 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0.235</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>0.290</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.230</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.300</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1718,19 +1714,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1750,7 +1746,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -1780,12 +1776,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1795,7 +1791,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1807,12 +1803,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1822,7 +1818,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1834,72 +1830,72 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.720</t>
+          <t>0.330</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -1907,35 +1903,39 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0.240</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1957,7 +1957,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1977,19 +1977,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1999,37 +1999,60 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>0.240</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.680</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>0.085</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>0.730</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>0.330</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2042,7 +2065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2087,61 +2110,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2151,29 +2174,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2188,110 +2211,110 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2303,22 +2326,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2330,120 +2353,120 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2453,7 +2476,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2465,34 +2488,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2519,22 +2542,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2546,7 +2569,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2573,22 +2596,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2600,49 +2623,49 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2654,61 +2677,61 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2718,12 +2741,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2735,7 +2758,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2762,108 +2785,108 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2920,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2907,29 +2930,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2939,61 +2962,61 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3005,49 +3028,49 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3059,22 +3082,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3086,12 +3109,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3101,88 +3124,88 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>35.5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3194,12 +3217,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3209,61 +3232,61 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3275,12 +3298,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3295,83 +3318,83 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3383,49 +3406,49 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3437,39 +3460,39 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3479,88 +3502,88 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>35.5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3572,61 +3595,61 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3636,39 +3659,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3680,66 +3703,66 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3755,6 +3778,33 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>37.5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>35.5</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3814,7 +3864,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3828,35 +3878,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0.31</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D3" t="n">
         <v>0.17</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3870,14 +3920,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3891,35 +3941,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.190</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.31</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D6" t="n">
         <v>0.17</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3933,14 +3983,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.185</t>
+          <t>7.190</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3954,14 +4004,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.170</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3976,7 +4026,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3990,35 +4040,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0.31</v>
       </c>
       <c r="C11" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.330</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4032,35 +4076,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.31</v>
       </c>
       <c r="C13" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D13" t="n">
         <v>0.17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4074,35 +4118,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0.31</v>
       </c>
       <c r="C15" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D15" t="n">
         <v>0.17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.170</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4116,14 +4160,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4137,14 +4181,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.190</t>
+          <t>7.299</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4165,7 +4209,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4179,56 +4223,56 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.31</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.31</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4242,14 +4286,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4258,40 +4302,28 @@
       <c r="C23" t="n">
         <v>0.09</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>7.265</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0.31</v>
       </c>
       <c r="C24" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>7.260</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4305,14 +4337,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.185</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4326,71 +4358,77 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>7.280</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0.31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D29" t="n">
         <v>0.17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4404,113 +4442,119 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.280</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0.31</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D31" t="n">
         <v>0.17</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0.31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D32" t="n">
         <v>0.17</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0.31</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D33" t="n">
         <v>0.17</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0.31</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7.260</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0.31</v>
       </c>
       <c r="C35" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D35" t="n">
         <v>0.17</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -4531,7 +4575,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -4545,14 +4589,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.175</t>
+          <t>7.330</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -4573,7 +4617,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -4587,14 +4631,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -4608,35 +4652,35 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0.31</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D41" t="n">
         <v>0.17</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -4650,14 +4694,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.170</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -4671,14 +4715,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.265</t>
+          <t>7.235</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -4692,14 +4736,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4720,7 +4764,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -4734,56 +4778,56 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.299</t>
+          <t>7.260</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0.31</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D47" t="n">
         <v>0.17</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.185</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0.31</v>
       </c>
       <c r="C48" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D48" t="n">
         <v>0.17</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.200</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4797,14 +4841,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>7.180</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4818,14 +4862,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7.280</t>
+          <t>7.290</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4839,14 +4883,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.185</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4860,14 +4904,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.185</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4881,14 +4925,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4902,35 +4946,35 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>7.190</t>
+          <t>7.170</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0.31</v>
       </c>
       <c r="C55" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D55" t="n">
         <v>0.17</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.265</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4944,65 +4988,71 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0.31</v>
       </c>
       <c r="C57" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>7.235</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0.31</v>
       </c>
       <c r="C58" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>7.299</t>
-        </is>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0.31</v>
       </c>
       <c r="C59" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>7.305</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -5012,18 +5062,18 @@
         <v>0.11</v>
       </c>
       <c r="D60" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>7.180</t>
+          <t>7.295</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -5033,18 +5083,18 @@
         <v>0.11</v>
       </c>
       <c r="D61" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7.330</t>
+          <t>7.180</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -5058,316 +5108,32 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>7.185</t>
+          <t>7.175</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>7.235</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="122426dadd4212b0c94bb7fdd569e94d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1889529ed04855864ffdcec696839eb" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
-    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
-    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceBillingMetadata" ma:index="27" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B30EE9F-1FBB-4F86-9FF7-CCABD6E2E5CB}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{781DD00A-9951-434E-B6E1-14EF788656E9}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433170E4-6367-4438-A6E0-8A34CCDCF2FA}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -5136,4 +5136,309 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="122426dadd4212b0c94bb7fdd569e94d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1889529ed04855864ffdcec696839eb" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="27" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC2066F5-33D5-44DC-BA63-919044E93B5E}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E853AAC-EA80-4AC1-A5DE-608A7C4C58D6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AC2F70-3686-4823-AF67-38EE75472F84}"/>
 </file>
--- a/DataBI/prix_matieres_output.xlsx
+++ b/DataBI/prix_matieres_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1903,39 +1903,35 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1957,12 +1953,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1977,19 +1973,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1999,60 +1995,87 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.110</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0.240</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.720</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+          <t>0.300</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0.240</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.680</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.720</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>0.085</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>0.730</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>0.330</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2065,7 +2088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,34 +2916,34 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2947,66 +2970,66 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>22.5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3016,7 +3039,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3028,22 +3051,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3055,22 +3078,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3082,22 +3105,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.05<